--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -960,6 +960,24 @@
   </si>
   <si>
     <t>COMPRAS CENTRAL--CHORIZO</t>
+  </si>
+  <si>
+    <t>NOMINA #  15</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL --ARABE</t>
+  </si>
+  <si>
+    <t>CHORIZO-LONGANIZA-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 16</t>
+  </si>
+  <si>
+    <t>NOMINA # 17</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL--LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2636,37 +2654,8 @@
     <xf numFmtId="44" fontId="46" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="47" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,13 +2739,43 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4779,23 +4798,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="246"/>
-      <c r="C1" s="248" t="s">
+      <c r="B1" s="275"/>
+      <c r="C1" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="247"/>
+      <c r="B2" s="276"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4805,21 +4824,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="251"/>
+      <c r="B3" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="280"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="252" t="s">
+      <c r="H3" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="252"/>
+      <c r="I3" s="281"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="248" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4834,14 +4853,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="H4" s="255" t="s">
+      <c r="F4" s="283"/>
+      <c r="H4" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="256"/>
+      <c r="I4" s="285"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4851,11 +4870,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="264" t="s">
+      <c r="P4" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="265"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -6356,11 +6375,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="266">
+      <c r="M40" s="257">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="268">
+      <c r="N40" s="259">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -6386,8 +6405,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="269"/>
+      <c r="M41" s="258"/>
+      <c r="N41" s="260"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6602,29 +6621,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="270" t="s">
+      <c r="H53" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="271"/>
+      <c r="I53" s="262"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="272">
+      <c r="K53" s="263">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="273"/>
-      <c r="M53" s="274">
+      <c r="L53" s="264"/>
+      <c r="M53" s="265">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="275"/>
+      <c r="N53" s="266"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="276" t="s">
+      <c r="D54" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="276"/>
+      <c r="E54" s="267"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6635,22 +6654,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="277" t="s">
+      <c r="D55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="277"/>
+      <c r="E55" s="268"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="278" t="s">
+      <c r="I55" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="279"/>
-      <c r="K55" s="280">
+      <c r="J55" s="270"/>
+      <c r="K55" s="271">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="281"/>
+      <c r="L55" s="272"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6681,11 +6700,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="282">
+      <c r="K57" s="273">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="283"/>
+      <c r="L57" s="274"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6702,22 +6721,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="259" t="s">
+      <c r="D59" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="260"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="261" t="s">
+      <c r="I59" s="252" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="262"/>
-      <c r="K59" s="263">
+      <c r="J59" s="253"/>
+      <c r="K59" s="254">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="263"/>
+      <c r="L59" s="254"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6861,6 +6880,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6876,12 +6901,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8699,23 +8718,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="246"/>
-      <c r="C1" s="248" t="s">
+      <c r="B1" s="275"/>
+      <c r="C1" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="247"/>
+      <c r="B2" s="276"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8725,21 +8744,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="251"/>
+      <c r="B3" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="280"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="252" t="s">
+      <c r="H3" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="252"/>
+      <c r="I3" s="281"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="248" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8754,14 +8773,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="H4" s="255" t="s">
+      <c r="F4" s="283"/>
+      <c r="H4" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="256"/>
+      <c r="I4" s="285"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8771,11 +8790,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="264" t="s">
+      <c r="P4" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="265"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10259,11 +10278,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="284">
+      <c r="M40" s="286">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="268">
+      <c r="N40" s="259">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -10289,8 +10308,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="269"/>
+      <c r="M41" s="258"/>
+      <c r="N41" s="260"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -10505,29 +10524,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="270" t="s">
+      <c r="H53" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="271"/>
+      <c r="I53" s="262"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="272">
+      <c r="K53" s="263">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="273"/>
-      <c r="M53" s="274">
+      <c r="L53" s="264"/>
+      <c r="M53" s="265">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="275"/>
+      <c r="N53" s="266"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="276" t="s">
+      <c r="D54" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="276"/>
+      <c r="E54" s="267"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -10538,22 +10557,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="277" t="s">
+      <c r="D55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="277"/>
+      <c r="E55" s="268"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="278" t="s">
+      <c r="I55" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="279"/>
-      <c r="K55" s="280">
+      <c r="J55" s="270"/>
+      <c r="K55" s="271">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="281"/>
+      <c r="L55" s="272"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10584,11 +10603,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="282">
+      <c r="K57" s="273">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="283"/>
+      <c r="L57" s="274"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10605,22 +10624,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="259" t="s">
+      <c r="D59" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="260"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="261" t="s">
+      <c r="I59" s="252" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="262"/>
-      <c r="K59" s="263">
+      <c r="J59" s="253"/>
+      <c r="K59" s="254">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="263"/>
+      <c r="L59" s="254"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10764,6 +10783,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10773,18 +10804,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12089,23 +12108,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="246"/>
-      <c r="C1" s="248" t="s">
+      <c r="B1" s="275"/>
+      <c r="C1" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="247"/>
+      <c r="B2" s="276"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12115,21 +12134,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="251"/>
+      <c r="B3" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="280"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="252" t="s">
+      <c r="H3" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="252"/>
+      <c r="I3" s="281"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="248" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12144,14 +12163,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="H4" s="255" t="s">
+      <c r="F4" s="283"/>
+      <c r="H4" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="256"/>
+      <c r="I4" s="285"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -12161,11 +12180,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="264" t="s">
+      <c r="P4" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="265"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -13633,11 +13652,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="266">
+      <c r="M40" s="257">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="268">
+      <c r="N40" s="259">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -13667,8 +13686,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="267"/>
-      <c r="N41" s="269"/>
+      <c r="M41" s="258"/>
+      <c r="N41" s="260"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13883,29 +13902,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="270" t="s">
+      <c r="H53" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="271"/>
+      <c r="I53" s="262"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="272">
+      <c r="K53" s="263">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="273"/>
-      <c r="M53" s="274">
+      <c r="L53" s="264"/>
+      <c r="M53" s="265">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="275"/>
+      <c r="N53" s="266"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="276" t="s">
+      <c r="D54" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="276"/>
+      <c r="E54" s="267"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -13916,22 +13935,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="277" t="s">
+      <c r="D55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="277"/>
+      <c r="E55" s="268"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="278" t="s">
+      <c r="I55" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="279"/>
-      <c r="K55" s="280">
+      <c r="J55" s="270"/>
+      <c r="K55" s="271">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="281"/>
+      <c r="L55" s="272"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13962,11 +13981,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="282">
+      <c r="K57" s="273">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="283"/>
+      <c r="L57" s="274"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13983,22 +14002,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="259" t="s">
+      <c r="D59" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="260"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="261" t="s">
+      <c r="I59" s="252" t="s">
         <v>227</v>
       </c>
-      <c r="J59" s="262"/>
-      <c r="K59" s="263">
+      <c r="J59" s="253"/>
+      <c r="K59" s="254">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="263"/>
+      <c r="L59" s="254"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14142,18 +14161,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14163,6 +14170,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15846,8 +15865,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15865,28 +15884,28 @@
     <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="285" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="246" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="246"/>
-      <c r="C1" s="248" t="s">
+      <c r="B1" s="275"/>
+      <c r="C1" s="277" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="247"/>
+      <c r="B2" s="276"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15896,21 +15915,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="251"/>
+      <c r="B3" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="280"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="252" t="s">
+      <c r="H3" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="252"/>
+      <c r="I3" s="281"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="248" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15925,14 +15944,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="254"/>
-      <c r="H4" s="255" t="s">
+      <c r="F4" s="283"/>
+      <c r="H4" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="256"/>
+      <c r="I4" s="285"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15942,11 +15961,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="264" t="s">
+      <c r="P4" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="265"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16035,6 +16054,9 @@
         <v>3</v>
       </c>
       <c r="R6" s="8"/>
+      <c r="S6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
@@ -16078,6 +16100,9 @@
         <v>3</v>
       </c>
       <c r="R7" s="9"/>
+      <c r="S7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
@@ -16123,6 +16148,9 @@
         <v>9</v>
       </c>
       <c r="R8" s="9"/>
+      <c r="S8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
@@ -16166,6 +16194,9 @@
         <v>4</v>
       </c>
       <c r="R9" s="8"/>
+      <c r="S9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
@@ -16217,6 +16248,9 @@
         <v>-14</v>
       </c>
       <c r="R10" s="9"/>
+      <c r="S10">
+        <v>-14</v>
+      </c>
       <c r="U10" t="s">
         <v>8</v>
       </c>
@@ -16268,6 +16302,9 @@
       <c r="R11" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
@@ -16311,6 +16348,9 @@
         <v>0</v>
       </c>
       <c r="R12" s="8"/>
+      <c r="S12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
@@ -16354,6 +16394,9 @@
         <v>5</v>
       </c>
       <c r="R13" s="185"/>
+      <c r="S13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
@@ -16399,6 +16442,9 @@
         <v>3</v>
       </c>
       <c r="R14" s="185"/>
+      <c r="S14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
@@ -16441,6 +16487,9 @@
         <v>-8</v>
       </c>
       <c r="R15" s="8"/>
+      <c r="S15">
+        <v>-8</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
@@ -16454,31 +16503,39 @@
       <c r="E16" s="28">
         <v>44659</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>89894</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44659</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>106</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>55000+34490</f>
+        <v>89490</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89896</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16493,30 +16550,44 @@
       <c r="E17" s="28">
         <v>44660</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>67991</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44660</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>158</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44660</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="48">
+        <v>9800</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>30000+18440</f>
+        <v>48440</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>9597</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67995</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="8"/>
+      <c r="S17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
@@ -16524,36 +16595,46 @@
         <v>44661</v>
       </c>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>17885</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="E18" s="28">
         <v>44661</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>91204</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44661</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>35</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>50000+11112+10616</f>
+        <v>71728</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91204</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="8"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
@@ -16567,31 +16648,39 @@
       <c r="E19" s="28">
         <v>44662</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>60684</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44662</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>202</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>30100+29613</f>
+        <v>59713</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60684</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="8"/>
+      <c r="S19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
@@ -16605,30 +16694,38 @@
       <c r="E20" s="28">
         <v>44663</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>56907</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44663</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>28</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>30000+26700</f>
+        <v>56700</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56900</v>
+      </c>
+      <c r="Q20" s="61">
+        <f t="shared" si="1"/>
+        <v>-7</v>
       </c>
       <c r="R20" s="8"/>
+      <c r="S20">
+        <v>-7</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
@@ -16642,30 +16739,38 @@
       <c r="E21" s="28">
         <v>44664</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>48470</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44664</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>32</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>15000+32870</f>
+        <v>47870</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48471</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="8"/>
+      <c r="S21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
@@ -16679,30 +16784,38 @@
       <c r="E22" s="28">
         <v>44665</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>55521</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44665</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>108</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>15000+39860</f>
+        <v>54860</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55522</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
+      <c r="S22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
@@ -16716,30 +16829,37 @@
       <c r="E23" s="28">
         <v>44666</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>23712</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44666</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>18</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>22970</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23712</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="8"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
@@ -16747,36 +16867,52 @@
         <v>44667</v>
       </c>
       <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>4733</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>234</v>
+      </c>
       <c r="E24" s="28">
         <v>44667</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>94543</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44667</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>44</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44667</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="63">
+        <v>9800</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>25000+42150</f>
+        <v>67150</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>12817</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94544</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8"/>
+      <c r="S24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
@@ -16784,41 +16920,48 @@
         <v>44668</v>
       </c>
       <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>15934</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="E25" s="28">
         <v>44668</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>83216</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44668</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>17210+50000</f>
+        <v>67210</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83216</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="8"/>
-      <c r="S25" t="s">
-        <v>8</v>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16833,30 +16976,38 @@
       <c r="E26" s="28">
         <v>44669</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>65304</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44669</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>136</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>33900+30877</f>
+        <v>64777</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65304</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="9"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
@@ -16870,30 +17021,38 @@
       <c r="E27" s="28">
         <v>44670</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>63083</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44670</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>70</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>47800+15000</f>
+        <v>62800</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63086</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" s="8"/>
+      <c r="S27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
@@ -16907,30 +17066,38 @@
       <c r="E28" s="28">
         <v>44671</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>50512</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44671</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>104</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>25000+25370</f>
+        <v>50370</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50514</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="8"/>
+      <c r="S28">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
@@ -16938,36 +17105,46 @@
         <v>44672</v>
       </c>
       <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
+        <v>2720</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" s="28">
         <v>44672</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>77234</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44672</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>83</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>53460+20000</f>
+        <v>73460</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77233</v>
+      </c>
+      <c r="Q29" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="R29" s="8"/>
+      <c r="S29">
+        <v>-1</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
@@ -16981,24 +17158,29 @@
       <c r="E30" s="28">
         <v>44673</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>77198</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44673</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>39</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
-      <c r="M30" s="32">
-        <v>0</v>
+      <c r="M30" s="287">
+        <f>30000+46759</f>
+        <v>76759</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77198</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
@@ -17018,24 +17200,35 @@
       <c r="E31" s="28">
         <v>44674</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>117077</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44674</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="32">
-        <v>0</v>
+      <c r="I31" s="31">
+        <v>84</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44674</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" s="77">
+        <v>9800</v>
+      </c>
+      <c r="M31" s="287">
+        <f>45000+53783</f>
+        <v>98783</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>8410</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117077</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="1"/>
@@ -17049,30 +17242,37 @@
         <v>44675</v>
       </c>
       <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="78"/>
+        <v>19698</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>237</v>
+      </c>
       <c r="E32" s="28">
         <v>44675</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>107499</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44675</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
-      <c r="M32" s="32">
-        <v>0</v>
+      <c r="M32" s="287">
+        <f>55000+29608</f>
+        <v>84608</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>3193</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107499</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="1"/>
@@ -17351,21 +17551,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="266">
+      <c r="M40" s="257">
         <f>SUM(M5:M39)</f>
-        <v>590940</v>
-      </c>
-      <c r="N40" s="268">
+        <v>1688628</v>
+      </c>
+      <c r="N40" s="259">
         <f>SUM(N5:N39)</f>
-        <v>14806</v>
+        <v>55556</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>658247</v>
+        <v>1888302</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>658247</v>
+        <v>1888302</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17379,10 +17579,10 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="286"/>
+      <c r="K41" s="247"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="269"/>
+      <c r="M41" s="258"/>
+      <c r="N41" s="260"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17555,7 +17755,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>42823</v>
+        <v>103793</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -17563,7 +17763,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>658242</v>
+        <v>1888291</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -17571,7 +17771,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>961</v>
+        <v>2208</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -17579,7 +17779,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>8717</v>
+        <v>38117</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -17597,32 +17797,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="270" t="s">
+      <c r="H53" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="271"/>
+      <c r="I53" s="262"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="272">
+      <c r="K53" s="263">
         <f>I51+L51</f>
-        <v>9678</v>
-      </c>
-      <c r="L53" s="273"/>
-      <c r="M53" s="274">
+        <v>40325</v>
+      </c>
+      <c r="L53" s="264"/>
+      <c r="M53" s="265">
         <f>N40+M40</f>
-        <v>605746</v>
-      </c>
-      <c r="N53" s="275"/>
+        <v>1744184</v>
+      </c>
+      <c r="N53" s="266"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="276" t="s">
+      <c r="D54" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="276"/>
+      <c r="E54" s="267"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>605741</v>
+        <v>1744173</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -17630,22 +17830,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="277" t="s">
+      <c r="D55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="277"/>
+      <c r="E55" s="268"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="278" t="s">
+      <c r="I55" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="279"/>
-      <c r="K55" s="280">
+      <c r="J55" s="270"/>
+      <c r="K55" s="271">
         <f>F57+F58+F59</f>
-        <v>605741</v>
-      </c>
-      <c r="L55" s="281"/>
+        <v>1744173</v>
+      </c>
+      <c r="L55" s="272"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17669,18 +17869,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>605741</v>
+        <v>1744173</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="282">
+      <c r="K57" s="273">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="283"/>
+      <c r="L57" s="274"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17695,22 +17895,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="259" t="s">
+      <c r="D59" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="260"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="261" t="s">
+      <c r="I59" s="252" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="262"/>
-      <c r="K59" s="263">
+      <c r="J59" s="253"/>
+      <c r="K59" s="254">
         <f>K55+K57</f>
-        <v>386323.63</v>
-      </c>
-      <c r="L59" s="263"/>
+        <v>1524755.63</v>
+      </c>
+      <c r="L59" s="254"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17854,6 +18054,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -17861,20 +18075,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="238">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2195,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2658,6 +2658,40 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2739,43 +2773,12 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="27" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4798,23 +4801,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="275"/>
-      <c r="C1" s="277" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="276"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4824,21 +4827,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="280"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="281" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="281"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="260" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4853,14 +4856,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="H4" s="284" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="285"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4870,11 +4873,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="255" t="s">
+      <c r="P4" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="261"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -6375,11 +6378,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="257">
+      <c r="M40" s="269">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="259">
+      <c r="N40" s="271">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -6405,8 +6408,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="260"/>
+      <c r="M41" s="270"/>
+      <c r="N41" s="272"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6621,29 +6624,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="261" t="s">
+      <c r="H53" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="262"/>
+      <c r="I53" s="274"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="263">
+      <c r="K53" s="275">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="264"/>
-      <c r="M53" s="265">
+      <c r="L53" s="276"/>
+      <c r="M53" s="277">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="266"/>
+      <c r="N53" s="278"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="267" t="s">
+      <c r="D54" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="267"/>
+      <c r="E54" s="279"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6654,22 +6657,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="268" t="s">
+      <c r="D55" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="268"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="269" t="s">
+      <c r="I55" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="270"/>
-      <c r="K55" s="271">
+      <c r="J55" s="282"/>
+      <c r="K55" s="283">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="272"/>
+      <c r="L55" s="284"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6700,11 +6703,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="273">
+      <c r="K57" s="285">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="274"/>
+      <c r="L57" s="286"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6721,22 +6724,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="250" t="s">
+      <c r="D59" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="251"/>
+      <c r="E59" s="263"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="252" t="s">
+      <c r="I59" s="264" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254">
+      <c r="J59" s="265"/>
+      <c r="K59" s="266">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="254"/>
+      <c r="L59" s="266"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6880,12 +6883,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6901,6 +6898,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8718,23 +8721,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="275"/>
-      <c r="C1" s="277" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="276"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8744,21 +8747,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="280"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="281" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="281"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="260" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8773,14 +8776,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="H4" s="284" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="285"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8790,11 +8793,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="255" t="s">
+      <c r="P4" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="261"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10278,11 +10281,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="286">
+      <c r="M40" s="287">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="259">
+      <c r="N40" s="271">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -10308,8 +10311,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="260"/>
+      <c r="M41" s="270"/>
+      <c r="N41" s="272"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -10524,29 +10527,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="261" t="s">
+      <c r="H53" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="262"/>
+      <c r="I53" s="274"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="263">
+      <c r="K53" s="275">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="264"/>
-      <c r="M53" s="265">
+      <c r="L53" s="276"/>
+      <c r="M53" s="277">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="266"/>
+      <c r="N53" s="278"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="267" t="s">
+      <c r="D54" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="267"/>
+      <c r="E54" s="279"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -10557,22 +10560,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="268" t="s">
+      <c r="D55" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="268"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="269" t="s">
+      <c r="I55" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="270"/>
-      <c r="K55" s="271">
+      <c r="J55" s="282"/>
+      <c r="K55" s="283">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="272"/>
+      <c r="L55" s="284"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10603,11 +10606,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="273">
+      <c r="K57" s="285">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="274"/>
+      <c r="L57" s="286"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10624,22 +10627,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="250" t="s">
+      <c r="D59" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="251"/>
+      <c r="E59" s="263"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="252" t="s">
+      <c r="I59" s="264" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254">
+      <c r="J59" s="265"/>
+      <c r="K59" s="266">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="254"/>
+      <c r="L59" s="266"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10783,18 +10786,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10804,6 +10795,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12108,23 +12111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="275"/>
-      <c r="C1" s="277" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="276"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12134,21 +12137,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="280"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="281" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="281"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="260" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12163,14 +12166,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="H4" s="284" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="285"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -12180,11 +12183,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="255" t="s">
+      <c r="P4" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="261"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -13652,11 +13655,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="257">
+      <c r="M40" s="269">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="259">
+      <c r="N40" s="271">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -13686,8 +13689,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="258"/>
-      <c r="N41" s="260"/>
+      <c r="M41" s="270"/>
+      <c r="N41" s="272"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13902,29 +13905,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="261" t="s">
+      <c r="H53" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="262"/>
+      <c r="I53" s="274"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="263">
+      <c r="K53" s="275">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="264"/>
-      <c r="M53" s="265">
+      <c r="L53" s="276"/>
+      <c r="M53" s="277">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="266"/>
+      <c r="N53" s="278"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="267" t="s">
+      <c r="D54" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="267"/>
+      <c r="E54" s="279"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -13935,22 +13938,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="268" t="s">
+      <c r="D55" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="268"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="269" t="s">
+      <c r="I55" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="270"/>
-      <c r="K55" s="271">
+      <c r="J55" s="282"/>
+      <c r="K55" s="283">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="272"/>
+      <c r="L55" s="284"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13981,11 +13984,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="273">
+      <c r="K57" s="285">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="274"/>
+      <c r="L57" s="286"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -14002,22 +14005,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="250" t="s">
+      <c r="D59" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="251"/>
+      <c r="E59" s="263"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="252" t="s">
+      <c r="I59" s="264" t="s">
         <v>227</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254">
+      <c r="J59" s="265"/>
+      <c r="K59" s="266">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="254"/>
+      <c r="L59" s="266"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14161,6 +14164,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14170,18 +14185,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15865,8 +15868,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15889,23 +15892,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="275"/>
-      <c r="C1" s="277" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="251" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="276"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15915,21 +15918,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="280"/>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="254"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="281" t="s">
+      <c r="H3" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="281"/>
+      <c r="I3" s="255"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="260" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15944,14 +15947,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="H4" s="284" t="s">
+      <c r="F4" s="257"/>
+      <c r="H4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="285"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15961,11 +15964,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="255" t="s">
+      <c r="P4" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="261"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -17171,7 +17174,7 @@
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
-      <c r="M30" s="287">
+      <c r="M30" s="248">
         <f>30000+46759</f>
         <v>76759</v>
       </c>
@@ -17219,7 +17222,7 @@
       <c r="L31" s="77">
         <v>9800</v>
       </c>
-      <c r="M31" s="287">
+      <c r="M31" s="248">
         <f>45000+53783</f>
         <v>98783</v>
       </c>
@@ -17263,7 +17266,7 @@
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
-      <c r="M32" s="287">
+      <c r="M32" s="248">
         <f>55000+29608</f>
         <v>84608</v>
       </c>
@@ -17548,14 +17551,20 @@
       <c r="G40" s="2"/>
       <c r="H40" s="37"/>
       <c r="I40" s="88"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="257">
+      <c r="J40" s="73">
+        <v>44676</v>
+      </c>
+      <c r="K40" s="288" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="75">
+        <v>30225</v>
+      </c>
+      <c r="M40" s="269">
         <f>SUM(M5:M39)</f>
         <v>1688628</v>
       </c>
-      <c r="N40" s="259">
+      <c r="N40" s="271">
         <f>SUM(N5:N39)</f>
         <v>55556</v>
       </c>
@@ -17581,8 +17590,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="247"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="260"/>
+      <c r="M41" s="270"/>
+      <c r="N41" s="272"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17779,7 +17788,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>38117</v>
+        <v>68342</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -17797,32 +17806,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="261" t="s">
+      <c r="H53" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="262"/>
+      <c r="I53" s="274"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="263">
+      <c r="K53" s="275">
         <f>I51+L51</f>
-        <v>40325</v>
-      </c>
-      <c r="L53" s="264"/>
-      <c r="M53" s="265">
+        <v>70550</v>
+      </c>
+      <c r="L53" s="276"/>
+      <c r="M53" s="277">
         <f>N40+M40</f>
         <v>1744184</v>
       </c>
-      <c r="N53" s="266"/>
+      <c r="N53" s="278"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="267" t="s">
+      <c r="D54" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="267"/>
+      <c r="E54" s="279"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1744173</v>
+        <v>1713948</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -17830,22 +17839,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="268" t="s">
+      <c r="D55" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="268"/>
+      <c r="E55" s="280"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="269" t="s">
+      <c r="I55" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="270"/>
-      <c r="K55" s="271">
+      <c r="J55" s="282"/>
+      <c r="K55" s="283">
         <f>F57+F58+F59</f>
-        <v>1744173</v>
-      </c>
-      <c r="L55" s="272"/>
+        <v>1713948</v>
+      </c>
+      <c r="L55" s="284"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17869,18 +17878,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1744173</v>
+        <v>1713948</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="273">
+      <c r="K57" s="285">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="274"/>
+      <c r="L57" s="286"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17895,22 +17904,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="250" t="s">
+      <c r="D59" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="251"/>
+      <c r="E59" s="263"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="252" t="s">
+      <c r="I59" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254">
+      <c r="J59" s="265"/>
+      <c r="K59" s="266">
         <f>K55+K57</f>
-        <v>1524755.63</v>
-      </c>
-      <c r="L59" s="254"/>
+        <v>1494530.63</v>
+      </c>
+      <c r="L59" s="266"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -18054,20 +18063,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -18075,6 +18070,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="277">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -635,9 +635,6 @@
     <t>CANCELADA</t>
   </si>
   <si>
-    <t>PERDIDA</t>
-  </si>
-  <si>
     <t>ENERO</t>
   </si>
   <si>
@@ -978,6 +975,126 @@
   </si>
   <si>
     <t>COMPRAS CENTRAL--LONGANIZA</t>
+  </si>
+  <si>
+    <t>16784 C</t>
+  </si>
+  <si>
+    <t>16825 C</t>
+  </si>
+  <si>
+    <t>16969 C</t>
+  </si>
+  <si>
+    <t>16999 C</t>
+  </si>
+  <si>
+    <t>17001 C</t>
+  </si>
+  <si>
+    <t>C-17249</t>
+  </si>
+  <si>
+    <t>C-17381</t>
+  </si>
+  <si>
+    <t>C-17547</t>
+  </si>
+  <si>
+    <t>C-17657</t>
+  </si>
+  <si>
+    <t>C-17689</t>
+  </si>
+  <si>
+    <t>C-17777</t>
+  </si>
+  <si>
+    <t>C-17937</t>
+  </si>
+  <si>
+    <t>C-18132</t>
+  </si>
+  <si>
+    <t>C-18173</t>
+  </si>
+  <si>
+    <t>C-18175</t>
+  </si>
+  <si>
+    <t>C-18214</t>
+  </si>
+  <si>
+    <t>C-18364</t>
+  </si>
+  <si>
+    <t>C-18489</t>
+  </si>
+  <si>
+    <t>C-18580</t>
+  </si>
+  <si>
+    <t>C-18748</t>
+  </si>
+  <si>
+    <t>C-18770</t>
+  </si>
+  <si>
+    <t>C-18842</t>
+  </si>
+  <si>
+    <t>C-18950</t>
+  </si>
+  <si>
+    <t>C-19025</t>
+  </si>
+  <si>
+    <t>C-19220</t>
+  </si>
+  <si>
+    <t>C-19249</t>
+  </si>
+  <si>
+    <t>C-19400</t>
+  </si>
+  <si>
+    <t>C-19525</t>
+  </si>
+  <si>
+    <t>C-19528</t>
+  </si>
+  <si>
+    <t>C-19552</t>
+  </si>
+  <si>
+    <t>C-19637</t>
+  </si>
+  <si>
+    <t>C-19920</t>
+  </si>
+  <si>
+    <t>C-20049</t>
+  </si>
+  <si>
+    <t>C-20155</t>
+  </si>
+  <si>
+    <t>C-20194</t>
+  </si>
+  <si>
+    <t>C-20196</t>
+  </si>
+  <si>
+    <t>C-20341</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t>C-20508</t>
+  </si>
+  <si>
+    <t>C-20579</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1109,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1486,38 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF66CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2195,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2609,9 +2758,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2658,40 +2804,20 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="27" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2773,12 +2899,47 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="27" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4801,23 +4962,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4827,21 +4988,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="255" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4856,14 +5017,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -4873,11 +5034,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="261"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="256"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -6179,10 +6340,10 @@
       <c r="H34" s="37"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="81" t="s">
         <v>124</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>125</v>
       </c>
       <c r="L34" s="82">
         <v>549</v>
@@ -6243,10 +6404,10 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" s="182" t="s">
         <v>202</v>
-      </c>
-      <c r="K36" s="182" t="s">
-        <v>203</v>
       </c>
       <c r="L36" s="82">
         <v>2143.61</v>
@@ -6278,10 +6439,10 @@
       <c r="H37" s="37"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K37" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L37" s="82">
         <v>1195.68</v>
@@ -6313,7 +6474,7 @@
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L38" s="80">
         <v>895.42</v>
@@ -6345,7 +6506,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" s="75">
         <v>1392</v>
@@ -6378,11 +6539,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="269">
+      <c r="M40" s="264">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="271">
+      <c r="N40" s="266">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -6408,8 +6569,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="270"/>
-      <c r="N41" s="272"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="267"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6624,29 +6785,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="273" t="s">
+      <c r="H53" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="274"/>
+      <c r="I53" s="269"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="275">
+      <c r="K53" s="270">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="276"/>
-      <c r="M53" s="277">
+      <c r="L53" s="271"/>
+      <c r="M53" s="272">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="278"/>
+      <c r="N53" s="273"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="279" t="s">
+      <c r="D54" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="279"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6657,22 +6818,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="280"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="281" t="s">
+      <c r="I55" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="K55" s="283">
+      <c r="J55" s="277"/>
+      <c r="K55" s="278">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="284"/>
+      <c r="L55" s="279"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6703,11 +6864,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="285">
+      <c r="K57" s="280">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="286"/>
+      <c r="L57" s="281"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6724,22 +6885,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="262" t="s">
+      <c r="D59" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="263"/>
+      <c r="E59" s="258"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="264" t="s">
-        <v>169</v>
-      </c>
-      <c r="J59" s="265"/>
-      <c r="K59" s="266">
+      <c r="I59" s="259" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="260"/>
+      <c r="K59" s="261">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="266"/>
+      <c r="L59" s="261"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -6883,6 +7044,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -6898,12 +7065,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8721,23 +8882,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8747,21 +8908,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="255" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8776,14 +8937,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8793,11 +8954,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="261"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="256"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8985,7 +9146,7 @@
         <v>12482</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="28">
         <v>44596</v>
@@ -9047,7 +9208,7 @@
         <v>44597</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="48">
         <v>7950</v>
@@ -9082,7 +9243,7 @@
         <v>5501</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="28">
         <v>44598</v>
@@ -9215,7 +9376,7 @@
         <v>6305</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="28">
         <v>44601</v>
@@ -9365,7 +9526,7 @@
         <v>44604</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="48">
         <v>10085.709999999999</v>
@@ -9540,7 +9701,7 @@
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
@@ -9672,7 +9833,7 @@
         <v>44611</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="63">
         <v>8850</v>
@@ -9765,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="J26" s="69"/>
-      <c r="K26" s="237"/>
+      <c r="K26" s="236"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
         <f>25440+20000</f>
@@ -9879,7 +10040,7 @@
         <v>800</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="28">
         <v>44616</v>
@@ -9982,7 +10143,7 @@
         <v>44618</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31" s="77">
         <v>10371</v>
@@ -10118,7 +10279,7 @@
       <c r="I35" s="31"/>
       <c r="J35" s="73"/>
       <c r="K35" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" s="80">
         <v>549</v>
@@ -10150,8 +10311,8 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="238" t="s">
-        <v>207</v>
+      <c r="K36" s="237" t="s">
+        <v>206</v>
       </c>
       <c r="L36" s="80">
         <v>1195.68</v>
@@ -10184,7 +10345,7 @@
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
       <c r="K37" s="221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L37" s="80">
         <v>1055.9100000000001</v>
@@ -10216,7 +10377,7 @@
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L38" s="80">
         <v>1392</v>
@@ -10248,7 +10409,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L39" s="80">
         <v>828.48</v>
@@ -10281,11 +10442,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="287">
+      <c r="M40" s="293">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="271">
+      <c r="N40" s="266">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -10311,8 +10472,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="270"/>
-      <c r="N41" s="272"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="267"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -10527,29 +10688,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="273" t="s">
+      <c r="H53" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="274"/>
+      <c r="I53" s="269"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="275">
+      <c r="K53" s="270">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="276"/>
-      <c r="M53" s="277">
+      <c r="L53" s="271"/>
+      <c r="M53" s="272">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="278"/>
+      <c r="N53" s="273"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="279" t="s">
+      <c r="D54" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="279"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -10560,22 +10721,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="280"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="281" t="s">
+      <c r="I55" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="K55" s="283">
+      <c r="J55" s="277"/>
+      <c r="K55" s="278">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="284"/>
+      <c r="L55" s="279"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10606,11 +10767,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="285">
+      <c r="K57" s="280">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="286"/>
+      <c r="L57" s="281"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10627,22 +10788,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="262" t="s">
+      <c r="D59" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="263"/>
+      <c r="E59" s="258"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="264" t="s">
-        <v>169</v>
-      </c>
-      <c r="J59" s="265"/>
-      <c r="K59" s="266">
+      <c r="I59" s="259" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="260"/>
+      <c r="K59" s="261">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="266"/>
+      <c r="L59" s="261"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10786,6 +10947,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10795,18 +10968,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10896,7 +11057,7 @@
         <v>44593</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="195">
         <v>5368.44</v>
@@ -10917,7 +11078,7 @@
         <v>44594</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="195">
         <v>67800.3</v>
@@ -10938,7 +11099,7 @@
         <v>44596</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="195">
         <v>82150.22</v>
@@ -10959,7 +11120,7 @@
         <v>44597</v>
       </c>
       <c r="B7" s="194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="195">
         <v>1276.5</v>
@@ -10977,7 +11138,7 @@
         <v>44597</v>
       </c>
       <c r="B8" s="194" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="195">
         <v>34446.5</v>
@@ -10994,7 +11155,7 @@
         <v>44597</v>
       </c>
       <c r="B9" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="195">
         <v>105739.83</v>
@@ -11011,7 +11172,7 @@
         <v>44599</v>
       </c>
       <c r="B10" s="194" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="195">
         <v>19806.88</v>
@@ -11028,7 +11189,7 @@
         <v>44599</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="195">
         <v>2830.84</v>
@@ -11045,7 +11206,7 @@
         <v>44600</v>
       </c>
       <c r="B12" s="194" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="195">
         <v>81188.800000000003</v>
@@ -11062,7 +11223,7 @@
         <v>44601</v>
       </c>
       <c r="B13" s="194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="195">
         <v>38204.76</v>
@@ -11080,7 +11241,7 @@
         <v>44601</v>
       </c>
       <c r="B14" s="194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="195">
         <v>59088.9</v>
@@ -11097,7 +11258,7 @@
         <v>44603</v>
       </c>
       <c r="B15" s="194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="195">
         <v>55757.3</v>
@@ -11114,7 +11275,7 @@
         <v>44603</v>
       </c>
       <c r="B16" s="194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="195">
         <v>50617.440000000002</v>
@@ -11135,7 +11296,7 @@
         <v>44604</v>
       </c>
       <c r="B17" s="194" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="195">
         <v>57701.599999999999</v>
@@ -11152,7 +11313,7 @@
         <v>44606</v>
       </c>
       <c r="B18" s="194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="195">
         <v>100500.86</v>
@@ -11169,7 +11330,7 @@
         <v>44607</v>
       </c>
       <c r="B19" s="194" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="195">
         <v>12524</v>
@@ -11186,7 +11347,7 @@
         <v>44608</v>
       </c>
       <c r="B20" s="194" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="195">
         <v>122099.28</v>
@@ -11203,7 +11364,7 @@
         <v>44608</v>
       </c>
       <c r="B21" s="194" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="195">
         <v>4846.3999999999996</v>
@@ -11220,7 +11381,7 @@
         <v>44609</v>
       </c>
       <c r="B22" s="194" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="195">
         <v>3707.2</v>
@@ -11237,7 +11398,7 @@
         <v>44610</v>
       </c>
       <c r="B23" s="194" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="195">
         <v>130649.11</v>
@@ -11258,7 +11419,7 @@
         <v>44610</v>
       </c>
       <c r="B24" s="194" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="195">
         <v>1371.2</v>
@@ -11275,7 +11436,7 @@
         <v>44610</v>
       </c>
       <c r="B25" s="194" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="195">
         <v>4899.55</v>
@@ -11293,7 +11454,7 @@
         <v>44611</v>
       </c>
       <c r="B26" s="194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="195">
         <v>56596.6</v>
@@ -11310,7 +11471,7 @@
         <v>44611</v>
       </c>
       <c r="B27" s="194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="195">
         <v>2100</v>
@@ -11327,7 +11488,7 @@
         <v>44613</v>
       </c>
       <c r="B28" s="194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="195">
         <v>56699.519999999997</v>
@@ -11344,7 +11505,7 @@
         <v>44613</v>
       </c>
       <c r="B29" s="194" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="195">
         <v>6470</v>
@@ -11361,7 +11522,7 @@
         <v>44613</v>
       </c>
       <c r="B30" s="194" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="195">
         <v>5335</v>
@@ -11378,7 +11539,7 @@
         <v>44615</v>
       </c>
       <c r="B31" s="194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="195">
         <v>105683.1</v>
@@ -11395,7 +11556,7 @@
         <v>44616</v>
       </c>
       <c r="B32" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="195">
         <v>40039.56</v>
@@ -11412,7 +11573,7 @@
         <v>44616</v>
       </c>
       <c r="B33" s="194" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="195">
         <v>1553.4</v>
@@ -11430,7 +11591,7 @@
         <v>44617</v>
       </c>
       <c r="B34" s="194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="195">
         <v>97272.02</v>
@@ -11451,12 +11612,12 @@
         <v>44618</v>
       </c>
       <c r="B35" s="194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="195">
         <v>96471.72</v>
       </c>
-      <c r="D35" s="239">
+      <c r="D35" s="238">
         <v>44624</v>
       </c>
       <c r="E35" s="197">
@@ -12111,23 +12272,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12137,21 +12298,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="255" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12166,14 +12327,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -12183,11 +12344,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="261"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="256"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12217,7 +12378,7 @@
         <v>44620</v>
       </c>
       <c r="K5" s="182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" s="9">
         <v>11500</v>
@@ -12249,7 +12410,7 @@
         <v>5100</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="28">
         <v>44621</v>
@@ -12439,7 +12600,7 @@
         <v>44625</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L10" s="48">
         <v>9800</v>
@@ -12474,7 +12635,7 @@
         <v>7790</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="28">
         <v>44626</v>
@@ -12564,7 +12725,7 @@
         <v>2840</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="28">
         <v>44628</v>
@@ -12757,7 +12918,7 @@
         <v>44632</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L17" s="48">
         <v>9800</v>
@@ -12788,7 +12949,7 @@
         <v>24281</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="28">
         <v>44633</v>
@@ -13064,7 +13225,7 @@
         <v>44639</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L24" s="63">
         <v>12300</v>
@@ -13095,7 +13256,7 @@
         <v>15145</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="28">
         <v>44640</v>
@@ -13187,7 +13348,7 @@
         <v>4490</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="28">
         <v>44642</v>
@@ -13376,7 +13537,7 @@
         <v>44646</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L31" s="77">
         <v>10185.709999999999</v>
@@ -13439,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13655,11 +13816,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="269">
+      <c r="M40" s="264">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="271">
+      <c r="N40" s="266">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -13683,14 +13844,14 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="236" t="s">
-        <v>191</v>
+      <c r="K41" s="235" t="s">
+        <v>190</v>
       </c>
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="270"/>
-      <c r="N41" s="272"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="267"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13905,29 +14066,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="273" t="s">
+      <c r="H53" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="274"/>
+      <c r="I53" s="269"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="275">
+      <c r="K53" s="270">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="276"/>
-      <c r="M53" s="277">
+      <c r="L53" s="271"/>
+      <c r="M53" s="272">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="278"/>
+      <c r="N53" s="273"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="279" t="s">
+      <c r="D54" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="279"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -13938,22 +14099,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="280"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="281" t="s">
+      <c r="I55" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="K55" s="283">
+      <c r="J55" s="277"/>
+      <c r="K55" s="278">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="284"/>
+      <c r="L55" s="279"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13984,11 +14145,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="285">
+      <c r="K57" s="280">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="286"/>
+      <c r="L57" s="281"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -14005,22 +14166,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="262" t="s">
+      <c r="D59" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="263"/>
+      <c r="E59" s="258"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="264" t="s">
-        <v>227</v>
-      </c>
-      <c r="J59" s="265"/>
-      <c r="K59" s="266">
+      <c r="I59" s="259" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" s="260"/>
+      <c r="K59" s="261">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="266"/>
+      <c r="L59" s="261"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14164,18 +14325,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14185,6 +14334,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14198,16 +14359,16 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="231" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="234" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="230" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -14219,7 +14380,7 @@
       <c r="A1" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="188"/>
       <c r="D1" s="198"/>
       <c r="E1" s="188"/>
@@ -14252,7 +14413,7 @@
         <v>44620</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="195">
         <v>63981.4</v>
@@ -14273,7 +14434,7 @@
         <v>44620</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="195">
         <v>28417.4</v>
@@ -14294,7 +14455,7 @@
         <v>44620</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="195">
         <v>3848.8</v>
@@ -14306,7 +14467,7 @@
         <v>3848.8</v>
       </c>
       <c r="F5" s="196">
-        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <f t="shared" ref="F5:F47" si="0">C5-E5+F4</f>
         <v>0</v>
       </c>
     </row>
@@ -14315,7 +14476,7 @@
         <v>44622</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="195">
         <v>20212.599999999999</v>
@@ -14337,7 +14498,7 @@
         <v>44622</v>
       </c>
       <c r="B7" s="194" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="195">
         <v>2787.2</v>
@@ -14358,7 +14519,7 @@
         <v>44622</v>
       </c>
       <c r="B8" s="194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="195">
         <v>76427.399999999994</v>
@@ -14379,7 +14540,7 @@
         <v>44622</v>
       </c>
       <c r="B9" s="194" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="195">
         <v>21897</v>
@@ -14400,7 +14561,7 @@
         <v>44624</v>
       </c>
       <c r="B10" s="194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="195">
         <v>117583.32</v>
@@ -14421,15 +14582,15 @@
         <v>44624</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="195">
         <v>23317.8</v>
       </c>
-      <c r="D11" s="242">
+      <c r="D11" s="241">
         <v>44631</v>
       </c>
-      <c r="E11" s="243">
+      <c r="E11" s="242">
         <v>23317.8</v>
       </c>
       <c r="F11" s="196">
@@ -14442,15 +14603,15 @@
         <v>44625</v>
       </c>
       <c r="B12" s="194" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="195">
         <v>92582.65</v>
       </c>
-      <c r="D12" s="242">
+      <c r="D12" s="241">
         <v>44631</v>
       </c>
-      <c r="E12" s="243">
+      <c r="E12" s="242">
         <v>92582.65</v>
       </c>
       <c r="F12" s="196">
@@ -14464,15 +14625,15 @@
         <v>44625</v>
       </c>
       <c r="B13" s="194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="195">
         <v>37678.199999999997</v>
       </c>
-      <c r="D13" s="242">
+      <c r="D13" s="241">
         <v>44631</v>
       </c>
-      <c r="E13" s="243">
+      <c r="E13" s="242">
         <v>37678.199999999997</v>
       </c>
       <c r="F13" s="196">
@@ -14485,15 +14646,15 @@
         <v>44627</v>
       </c>
       <c r="B14" s="194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="195">
         <v>71302.149999999994</v>
       </c>
-      <c r="D14" s="242">
+      <c r="D14" s="241">
         <v>44631</v>
       </c>
-      <c r="E14" s="243">
+      <c r="E14" s="242">
         <v>71302.149999999994</v>
       </c>
       <c r="F14" s="196">
@@ -14506,15 +14667,15 @@
         <v>44629</v>
       </c>
       <c r="B15" s="194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="195">
         <v>122152.6</v>
       </c>
-      <c r="D15" s="242">
+      <c r="D15" s="241">
         <v>44631</v>
       </c>
-      <c r="E15" s="243">
+      <c r="E15" s="242">
         <v>122152.6</v>
       </c>
       <c r="F15" s="196">
@@ -14527,15 +14688,15 @@
         <v>44630</v>
       </c>
       <c r="B16" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="195">
         <v>19883.2</v>
       </c>
-      <c r="D16" s="242">
+      <c r="D16" s="241">
         <v>44631</v>
       </c>
-      <c r="E16" s="243">
+      <c r="E16" s="242">
         <v>19883.2</v>
       </c>
       <c r="F16" s="196">
@@ -14548,15 +14709,15 @@
         <v>44630</v>
       </c>
       <c r="B17" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="195">
         <v>76107.320000000007</v>
       </c>
-      <c r="D17" s="242">
+      <c r="D17" s="241">
         <v>44631</v>
       </c>
-      <c r="E17" s="243">
+      <c r="E17" s="242">
         <v>76107.320000000007</v>
       </c>
       <c r="F17" s="196">
@@ -14569,7 +14730,7 @@
         <v>44631</v>
       </c>
       <c r="B18" s="194" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="195">
         <v>84276.9</v>
@@ -14590,7 +14751,7 @@
         <v>44632</v>
       </c>
       <c r="B19" s="194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="195">
         <v>47979.55</v>
@@ -14611,7 +14772,7 @@
         <v>44632</v>
       </c>
       <c r="B20" s="194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="195">
         <v>1377.6</v>
@@ -14632,7 +14793,7 @@
         <v>44632</v>
       </c>
       <c r="B21" s="194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="195">
         <v>12015.5</v>
@@ -14653,7 +14814,7 @@
         <v>44634</v>
       </c>
       <c r="B22" s="194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="195">
         <v>95938.68</v>
@@ -14674,7 +14835,7 @@
         <v>44634</v>
       </c>
       <c r="B23" s="194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="195">
         <v>9400.2000000000007</v>
@@ -14695,7 +14856,7 @@
         <v>44636</v>
       </c>
       <c r="B24" s="194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="195">
         <v>121105.5</v>
@@ -14717,7 +14878,7 @@
         <v>44636</v>
       </c>
       <c r="B25" s="194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="195">
         <v>17248.8</v>
@@ -14738,7 +14899,7 @@
         <v>44637</v>
       </c>
       <c r="B26" s="194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="195">
         <v>21554.400000000001</v>
@@ -14759,7 +14920,7 @@
         <v>44638</v>
       </c>
       <c r="B27" s="194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="195">
         <v>79239.5</v>
@@ -14780,15 +14941,15 @@
         <v>44638</v>
       </c>
       <c r="B28" s="194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="195">
         <v>12469.8</v>
       </c>
-      <c r="D28" s="244">
+      <c r="D28" s="243">
         <v>44645</v>
       </c>
-      <c r="E28" s="245">
+      <c r="E28" s="244">
         <v>12469.8</v>
       </c>
       <c r="F28" s="196">
@@ -14801,15 +14962,15 @@
         <v>44639</v>
       </c>
       <c r="B29" s="194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="195">
         <v>99143.25</v>
       </c>
-      <c r="D29" s="244">
+      <c r="D29" s="243">
         <v>44645</v>
       </c>
-      <c r="E29" s="245">
+      <c r="E29" s="244">
         <v>99143.25</v>
       </c>
       <c r="F29" s="196">
@@ -14822,15 +14983,15 @@
         <v>44639</v>
       </c>
       <c r="B30" s="194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="195">
         <v>6625</v>
       </c>
-      <c r="D30" s="244">
+      <c r="D30" s="243">
         <v>44645</v>
       </c>
-      <c r="E30" s="245">
+      <c r="E30" s="244">
         <v>6625</v>
       </c>
       <c r="F30" s="196">
@@ -14843,15 +15004,15 @@
         <v>44639</v>
       </c>
       <c r="B31" s="194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="195">
         <v>2445.6</v>
       </c>
-      <c r="D31" s="244">
+      <c r="D31" s="243">
         <v>44645</v>
       </c>
-      <c r="E31" s="245">
+      <c r="E31" s="244">
         <v>2445.6</v>
       </c>
       <c r="F31" s="196">
@@ -14864,15 +15025,15 @@
         <v>44641</v>
       </c>
       <c r="B32" s="194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="195">
         <v>99443</v>
       </c>
-      <c r="D32" s="244">
+      <c r="D32" s="243">
         <v>44645</v>
       </c>
-      <c r="E32" s="245">
+      <c r="E32" s="244">
         <v>99443</v>
       </c>
       <c r="F32" s="196">
@@ -14886,15 +15047,15 @@
         <v>44643</v>
       </c>
       <c r="B33" s="194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="195">
         <v>117287.22</v>
       </c>
-      <c r="D33" s="244">
+      <c r="D33" s="243">
         <v>44645</v>
       </c>
-      <c r="E33" s="245">
+      <c r="E33" s="244">
         <v>117287.22</v>
       </c>
       <c r="F33" s="196">
@@ -14907,15 +15068,15 @@
         <v>44644</v>
       </c>
       <c r="B34" s="194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="195">
         <v>27776.2</v>
       </c>
-      <c r="D34" s="244">
+      <c r="D34" s="243">
         <v>44645</v>
       </c>
-      <c r="E34" s="245">
+      <c r="E34" s="244">
         <v>27776.2</v>
       </c>
       <c r="F34" s="196">
@@ -14928,15 +15089,15 @@
         <v>44645</v>
       </c>
       <c r="B35" s="194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="195">
         <v>100979.1</v>
       </c>
-      <c r="D35" s="244">
+      <c r="D35" s="243">
         <v>44645</v>
       </c>
-      <c r="E35" s="245">
+      <c r="E35" s="244">
         <v>100979.1</v>
       </c>
       <c r="F35" s="196">
@@ -14949,15 +15110,15 @@
         <v>44645</v>
       </c>
       <c r="B36" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" s="195">
         <v>2400</v>
       </c>
-      <c r="D36" s="240">
+      <c r="D36" s="239">
         <v>44652</v>
       </c>
-      <c r="E36" s="241">
+      <c r="E36" s="240">
         <v>2400</v>
       </c>
       <c r="F36" s="196">
@@ -14970,15 +15131,15 @@
         <v>44646</v>
       </c>
       <c r="B37" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="195">
         <v>100244.2</v>
       </c>
-      <c r="D37" s="240">
+      <c r="D37" s="239">
         <v>44652</v>
       </c>
-      <c r="E37" s="241">
+      <c r="E37" s="240">
         <v>100244.2</v>
       </c>
       <c r="F37" s="196">
@@ -14991,15 +15152,15 @@
         <v>44646</v>
       </c>
       <c r="B38" s="194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="195">
         <v>400</v>
       </c>
-      <c r="D38" s="240">
+      <c r="D38" s="239">
         <v>44652</v>
       </c>
-      <c r="E38" s="241">
+      <c r="E38" s="240">
         <v>400</v>
       </c>
       <c r="F38" s="196">
@@ -15012,15 +15173,15 @@
         <v>44647</v>
       </c>
       <c r="B39" s="194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="195">
         <v>2696.4</v>
       </c>
-      <c r="D39" s="240">
+      <c r="D39" s="239">
         <v>44652</v>
       </c>
-      <c r="E39" s="241">
+      <c r="E39" s="240">
         <v>2696.4</v>
       </c>
       <c r="F39" s="196">
@@ -15033,15 +15194,15 @@
         <v>44647</v>
       </c>
       <c r="B40" s="194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="195">
         <v>7911.2</v>
       </c>
-      <c r="D40" s="240">
+      <c r="D40" s="239">
         <v>44652</v>
       </c>
-      <c r="E40" s="241">
+      <c r="E40" s="240">
         <v>7911.2</v>
       </c>
       <c r="F40" s="196">
@@ -15067,312 +15228,310 @@
       <c r="D42" s="200"/>
       <c r="E42" s="195"/>
       <c r="F42" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="195"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="225"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="224"/>
-      <c r="B44" s="194"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="195"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="226"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
-      <c r="B45" s="194"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="200"/>
-      <c r="E45" s="195"/>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="226"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
-      <c r="B46" s="194"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="200"/>
-      <c r="E46" s="195"/>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="226"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="224"/>
-      <c r="B47" s="194"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="195"/>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="226"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="224"/>
-      <c r="B48" s="194"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="195"/>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="226"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="224"/>
-      <c r="B49" s="194"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="195"/>
+        <f t="shared" ref="F48:F78" si="1">C48-E48+F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="226"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="224"/>
-      <c r="B50" s="194"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="195"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="226"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="224"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="195"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="226"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="224"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="200"/>
-      <c r="E52" s="195"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="226"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="225"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="226"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
       <c r="D53" s="159"/>
       <c r="E53" s="86"/>
       <c r="F53" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="225"/>
-      <c r="B54" s="160"/>
-      <c r="C54" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="226"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
       <c r="D54" s="159"/>
       <c r="E54" s="86"/>
       <c r="F54" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="225"/>
-      <c r="B55" s="160"/>
-      <c r="C55" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="226"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
       <c r="D55" s="159"/>
       <c r="E55" s="86"/>
       <c r="F55" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="226"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="159"/>
       <c r="E56" s="86"/>
       <c r="F56" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="226"/>
-      <c r="B57" s="160"/>
-      <c r="C57" s="86"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
       <c r="D57" s="159"/>
       <c r="E57" s="86"/>
       <c r="F57" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="226"/>
-      <c r="B58" s="160"/>
-      <c r="C58" s="86"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
       <c r="D58" s="159"/>
       <c r="E58" s="86"/>
       <c r="F58" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="225"/>
-      <c r="B59" s="160"/>
-      <c r="C59" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="226"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
       <c r="D59" s="159"/>
       <c r="E59" s="86"/>
       <c r="F59" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="225"/>
-      <c r="B60" s="160"/>
-      <c r="C60" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="226"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
       <c r="D60" s="159"/>
       <c r="E60" s="86"/>
       <c r="F60" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="225"/>
-      <c r="B61" s="160"/>
-      <c r="C61" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="226"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
       <c r="D61" s="159"/>
       <c r="E61" s="86"/>
       <c r="F61" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="226"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="227"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="226"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="227"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="226"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="86"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="227"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="227"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="86"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="227"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="86"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="227"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="86"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="227"/>
+      <c r="A68" s="226"/>
       <c r="B68" s="165"/>
       <c r="C68" s="166"/>
-      <c r="D68" s="159"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="86"/>
       <c r="F68" s="196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="227"/>
+      <c r="A69" s="226"/>
       <c r="B69" s="165"/>
       <c r="C69" s="166"/>
-      <c r="D69" s="159"/>
+      <c r="D69" s="171"/>
       <c r="E69" s="86"/>
       <c r="F69" s="196">
-        <f t="shared" ref="F69:F99" si="1">C69-E69+F68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="227"/>
+      <c r="A70" s="226"/>
       <c r="B70" s="165"/>
       <c r="C70" s="166"/>
-      <c r="D70" s="159"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
@@ -15380,10 +15539,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="227"/>
+      <c r="A71" s="226"/>
       <c r="B71" s="165"/>
       <c r="C71" s="166"/>
-      <c r="D71" s="159"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
@@ -15391,10 +15550,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="227"/>
+      <c r="A72" s="226"/>
       <c r="B72" s="165"/>
       <c r="C72" s="166"/>
-      <c r="D72" s="159"/>
+      <c r="D72" s="171"/>
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
@@ -15402,10 +15561,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="227"/>
+      <c r="A73" s="226"/>
       <c r="B73" s="165"/>
       <c r="C73" s="166"/>
-      <c r="D73" s="159"/>
+      <c r="D73" s="171"/>
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
@@ -15413,10 +15572,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="227"/>
+      <c r="A74" s="226"/>
       <c r="B74" s="165"/>
       <c r="C74" s="166"/>
-      <c r="D74" s="159"/>
+      <c r="D74" s="171"/>
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
@@ -15424,10 +15583,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="227"/>
+      <c r="A75" s="226"/>
       <c r="B75" s="165"/>
       <c r="C75" s="166"/>
-      <c r="D75" s="159"/>
+      <c r="D75" s="171"/>
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
@@ -15435,10 +15594,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="227"/>
+      <c r="A76" s="226"/>
       <c r="B76" s="165"/>
       <c r="C76" s="166"/>
-      <c r="D76" s="159"/>
+      <c r="D76" s="171"/>
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
@@ -15446,10 +15605,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="227"/>
+      <c r="A77" s="226"/>
       <c r="B77" s="165"/>
       <c r="C77" s="166"/>
-      <c r="D77" s="159"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
@@ -15457,403 +15616,172 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="227"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="86"/>
+      <c r="A78" s="228"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="174"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="227"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="227"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="159"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="227"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="166"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="227"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="228"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="228"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="228"/>
-      <c r="B85" s="168"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="228"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="228"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="228"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="227"/>
-      <c r="B89" s="165"/>
-      <c r="C89" s="166"/>
-      <c r="D89" s="171"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="227"/>
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="227"/>
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="227"/>
-      <c r="B92" s="165"/>
-      <c r="C92" s="166"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="227"/>
-      <c r="B93" s="165"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="227"/>
-      <c r="B94" s="165"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="171"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="227"/>
-      <c r="B95" s="165"/>
-      <c r="C95" s="166"/>
-      <c r="D95" s="171"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="227"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="166"/>
-      <c r="D96" s="171"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="227"/>
-      <c r="B97" s="165"/>
-      <c r="C97" s="166"/>
-      <c r="D97" s="171"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="227"/>
-      <c r="B98" s="165"/>
-      <c r="C98" s="166"/>
-      <c r="D98" s="171"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="229"/>
-      <c r="B99" s="173"/>
-      <c r="C99" s="34">
-        <v>0</v>
-      </c>
-      <c r="D99" s="174"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="230"/>
-      <c r="B100" s="233"/>
-      <c r="C100" s="177">
-        <f>SUM(C3:C99)</f>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="229"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="177">
+        <f>SUM(C3:C78)</f>
         <v>1848136.6399999997</v>
       </c>
-      <c r="D100" s="189"/>
-      <c r="E100" s="178">
-        <f>SUM(E3:E99)</f>
+      <c r="D79" s="189"/>
+      <c r="E79" s="178">
+        <f>SUM(E3:E78)</f>
         <v>1848136.6399999997</v>
       </c>
-      <c r="F100" s="179">
-        <f>F99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="170"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="170"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="235"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="235"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="235"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="235"/>
-      <c r="F106" s="117"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="235"/>
-      <c r="F107" s="117"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="235"/>
-      <c r="F108" s="117"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="235"/>
-      <c r="F109" s="117"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="235"/>
-      <c r="F110" s="117"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="235"/>
-      <c r="F111" s="117"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="235"/>
-      <c r="F112" s="117"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="235"/>
-      <c r="F113" s="117"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="235"/>
-      <c r="F114" s="117"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="235"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="235"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="235"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="117"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="235"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="235"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="235"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="235"/>
-      <c r="E121" s="117"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="235"/>
-      <c r="E122" s="117"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="235"/>
-      <c r="E123" s="117"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="235"/>
-      <c r="E124" s="117"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="235"/>
-      <c r="E125" s="117"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="235"/>
-      <c r="E126" s="117"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="235"/>
-      <c r="E127" s="117"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="235"/>
-      <c r="E128" s="117"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="235"/>
-      <c r="E129" s="117"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="235"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="235"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="235"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="235"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="235"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="235"/>
-    </row>
-    <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C136" s="180"/>
+      <c r="F79" s="179">
+        <f>SUM(F3:F78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="170"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="170"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="234"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="234"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="234"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="234"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="234"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="234"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="234"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="234"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="234"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="234"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="234"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="234"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="234"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="234"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="234"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="234"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="234"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="234"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="234"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="234"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="234"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="234"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="234"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="234"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="234"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="234"/>
+      <c r="E107" s="117"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="234"/>
+      <c r="E108" s="117"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="234"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="234"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="234"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="234"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="234"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="234"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15868,8 +15796,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15887,28 +15815,28 @@
     <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="246" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="249"/>
-      <c r="C1" s="251" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15918,21 +15846,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="254"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="255" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="255"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="255" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15947,14 +15875,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="256" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="H4" s="258" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15964,11 +15892,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="261"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="256"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16210,7 +16138,7 @@
         <v>9627</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="28">
         <v>44653</v>
@@ -16229,7 +16157,7 @@
         <v>44653</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L10" s="48">
         <v>8717</v>
@@ -16267,7 +16195,7 @@
         <v>10934</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="28">
         <v>44654</v>
@@ -16410,7 +16338,7 @@
         <v>18742</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="28">
         <v>44657</v>
@@ -16567,7 +16495,7 @@
         <v>44660</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L17" s="48">
         <v>9800</v>
@@ -16601,7 +16529,7 @@
         <v>17885</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="28">
         <v>44661</v>
@@ -16873,7 +16801,7 @@
         <v>4733</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" s="28">
         <v>44667</v>
@@ -16892,7 +16820,7 @@
         <v>44667</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L24" s="63">
         <v>9800</v>
@@ -16926,7 +16854,7 @@
         <v>15934</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="28">
         <v>44668</v>
@@ -17174,20 +17102,20 @@
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
-      <c r="M30" s="248">
-        <f>30000+46759</f>
-        <v>76759</v>
+      <c r="M30" s="32">
+        <f>30000+46760</f>
+        <v>76760</v>
       </c>
       <c r="N30" s="33">
         <v>400</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>77198</v>
+        <v>77199</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="8"/>
     </row>
@@ -17217,12 +17145,12 @@
         <v>44674</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L31" s="77">
         <v>9800</v>
       </c>
-      <c r="M31" s="248">
+      <c r="M31" s="32">
         <f>45000+53783</f>
         <v>98783</v>
       </c>
@@ -17248,7 +17176,7 @@
         <v>19698</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E32" s="28">
         <v>44675</v>
@@ -17266,7 +17194,7 @@
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
-      <c r="M32" s="248">
+      <c r="M32" s="32">
         <f>55000+29608</f>
         <v>84608</v>
       </c>
@@ -17282,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17291,34 +17219,41 @@
         <v>44676</v>
       </c>
       <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="79"/>
+        <v>3120</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>47</v>
+      </c>
       <c r="E33" s="28">
         <v>44676</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="29">
+        <v>73868</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="30">
         <v>44676</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="31">
+        <v>125</v>
+      </c>
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
       <c r="L33" s="80"/>
       <c r="M33" s="32">
-        <v>0</v>
+        <f>40000+30090</f>
+        <v>70090</v>
       </c>
       <c r="N33" s="33">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="P33" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>73865</v>
+      </c>
+      <c r="Q33" s="61">
+        <f t="shared" si="1"/>
+        <v>-3</v>
       </c>
       <c r="R33" s="8"/>
     </row>
@@ -17328,36 +17263,45 @@
         <v>44677</v>
       </c>
       <c r="C34" s="26">
-        <v>0</v>
-      </c>
-      <c r="D34" s="78"/>
+        <v>810</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>36</v>
+      </c>
       <c r="E34" s="28">
         <v>44677</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="29">
+        <v>42606</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="30">
         <v>44677</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="31">
+        <v>52</v>
+      </c>
       <c r="J34" s="73"/>
       <c r="K34" s="81"/>
       <c r="L34" s="82"/>
       <c r="M34" s="32">
-        <v>0</v>
+        <f>26744+15000</f>
+        <v>41744</v>
       </c>
       <c r="N34" s="33">
         <v>0</v>
       </c>
       <c r="P34" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42606</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="8"/>
+      <c r="R34" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
@@ -17371,24 +17315,29 @@
       <c r="E35" s="28">
         <v>44678</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="29">
+        <v>44907</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="30">
         <v>44678</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="31">
+        <v>83</v>
+      </c>
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
       <c r="L35" s="80"/>
       <c r="M35" s="32">
-        <v>0</v>
+        <f>29024+15800</f>
+        <v>44824</v>
       </c>
       <c r="N35" s="33">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44907</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
@@ -17408,28 +17357,33 @@
       <c r="E36" s="28">
         <v>44679</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="29">
+        <v>62031</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="30">
         <v>44679</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="31">
+        <v>2956</v>
+      </c>
       <c r="J36" s="73"/>
       <c r="K36" s="42"/>
       <c r="L36" s="80"/>
       <c r="M36" s="220">
-        <v>0</v>
+        <f>20000+39000</f>
+        <v>59000</v>
       </c>
       <c r="N36" s="33">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62033</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -17445,28 +17399,33 @@
       <c r="E37" s="28">
         <v>44680</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="29">
+        <v>88492</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="30">
         <v>44680</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="31">
+        <v>123</v>
+      </c>
       <c r="J37" s="73"/>
       <c r="K37" s="221"/>
       <c r="L37" s="80"/>
       <c r="M37" s="220">
-        <v>0</v>
+        <f>67640+20000</f>
+        <v>87640</v>
       </c>
       <c r="N37" s="33">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="P37" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88494</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17475,34 +17434,47 @@
         <v>44681</v>
       </c>
       <c r="C38" s="26">
-        <v>0</v>
-      </c>
-      <c r="D38" s="79"/>
+        <v>3520</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>47</v>
+      </c>
       <c r="E38" s="28">
         <v>44681</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <v>79664</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="30">
         <v>44681</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
+      <c r="I38" s="31">
+        <v>79</v>
+      </c>
+      <c r="J38" s="73">
+        <v>44681</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="80">
+        <v>12100</v>
+      </c>
       <c r="M38" s="32">
-        <v>0</v>
+        <f>39110+15000</f>
+        <v>54110</v>
       </c>
       <c r="N38" s="33">
-        <v>0</v>
+        <v>9850</v>
       </c>
       <c r="P38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79659</v>
+      </c>
+      <c r="Q38" s="61">
+        <f t="shared" si="1"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17511,30 +17483,37 @@
         <v>44682</v>
       </c>
       <c r="C39" s="26">
-        <v>0</v>
-      </c>
-      <c r="D39" s="79"/>
+        <v>14731</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>232</v>
+      </c>
       <c r="E39" s="28">
         <v>44682</v>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="85">
+        <v>117267</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="30">
         <v>44682</v>
       </c>
-      <c r="I39" s="31"/>
+      <c r="I39" s="31">
+        <v>56</v>
+      </c>
       <c r="J39" s="73"/>
       <c r="K39" s="76"/>
       <c r="L39" s="75"/>
       <c r="M39" s="32">
-        <v>0</v>
+        <f>20634+80000</f>
+        <v>100634</v>
       </c>
       <c r="N39" s="33">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="P39" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117267</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="1"/>
@@ -17554,27 +17533,27 @@
       <c r="J40" s="73">
         <v>44676</v>
       </c>
-      <c r="K40" s="288" t="s">
-        <v>191</v>
+      <c r="K40" s="247" t="s">
+        <v>190</v>
       </c>
       <c r="L40" s="75">
         <v>30225</v>
       </c>
-      <c r="M40" s="269">
+      <c r="M40" s="264">
         <f>SUM(M5:M39)</f>
-        <v>1688628</v>
-      </c>
-      <c r="N40" s="271">
+        <v>2146671</v>
+      </c>
+      <c r="N40" s="266">
         <f>SUM(N5:N39)</f>
-        <v>55556</v>
+        <v>68590</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1888302</v>
+        <v>2397134</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1888302</v>
+        <v>2397134</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17588,10 +17567,10 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="247"/>
+      <c r="K41" s="246"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="270"/>
-      <c r="N41" s="272"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="267"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17764,7 +17743,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>103793</v>
+        <v>125974</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -17772,7 +17751,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1888291</v>
+        <v>2397126</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -17780,7 +17759,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2208</v>
+        <v>5682</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -17788,7 +17767,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>68342</v>
+        <v>80442</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -17806,32 +17785,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="273" t="s">
+      <c r="H53" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="274"/>
+      <c r="I53" s="269"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="275">
+      <c r="K53" s="270">
         <f>I51+L51</f>
-        <v>70550</v>
-      </c>
-      <c r="L53" s="276"/>
-      <c r="M53" s="277">
+        <v>86124</v>
+      </c>
+      <c r="L53" s="271"/>
+      <c r="M53" s="272">
         <f>N40+M40</f>
-        <v>1744184</v>
-      </c>
-      <c r="N53" s="278"/>
+        <v>2215261</v>
+      </c>
+      <c r="N53" s="273"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="279" t="s">
+      <c r="D54" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="279"/>
+      <c r="E54" s="274"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1713948</v>
+        <v>2185028</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -17839,22 +17818,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="280"/>
+      <c r="E55" s="275"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="281" t="s">
+        <v>-2227493.48</v>
+      </c>
+      <c r="I55" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="282"/>
-      <c r="K55" s="283">
+      <c r="J55" s="277"/>
+      <c r="K55" s="278">
         <f>F57+F58+F59</f>
-        <v>1713948</v>
-      </c>
-      <c r="L55" s="284"/>
+        <v>266670.11000000004</v>
+      </c>
+      <c r="L55" s="279"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17878,18 +17857,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1713948</v>
+        <v>-42465.479999999981</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="285">
+      <c r="K57" s="280">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="286"/>
+      <c r="L57" s="281"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17899,27 +17878,27 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="262" t="s">
+      <c r="C59" s="133">
+        <v>44682</v>
+      </c>
+      <c r="D59" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="263"/>
+      <c r="E59" s="258"/>
       <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="264" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="265"/>
-      <c r="K59" s="266">
+        <v>297874.59000000003</v>
+      </c>
+      <c r="I59" s="259"/>
+      <c r="J59" s="260"/>
+      <c r="K59" s="261">
         <f>K55+K57</f>
-        <v>1494530.63</v>
-      </c>
-      <c r="L59" s="266"/>
+        <v>47252.740000000049</v>
+      </c>
+      <c r="L59" s="261"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -18063,18 +18042,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18084,6 +18051,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18097,16 +18076,16 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="231" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="234" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -18115,10 +18094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="188"/>
       <c r="D1" s="198"/>
       <c r="E1" s="188"/>
@@ -18127,7 +18106,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="210" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="155" t="s">
@@ -18147,44 +18126,84 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="224"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="195"/>
+      <c r="A3" s="252">
+        <v>44679</v>
+      </c>
+      <c r="B3" s="253" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="254">
+        <v>38714.910000000003</v>
+      </c>
+      <c r="D3" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E3" s="294">
+        <v>38714.910000000003</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="195"/>
+      <c r="A4" s="252">
+        <v>44679</v>
+      </c>
+      <c r="B4" s="253" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="254">
+        <v>7324.6</v>
+      </c>
+      <c r="D4" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E4" s="294">
+        <v>7324.6</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="195"/>
+      <c r="A5" s="252">
+        <v>44680</v>
+      </c>
+      <c r="B5" s="253" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="254">
+        <v>794.4</v>
+      </c>
+      <c r="D5" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E5" s="294">
+        <v>794.4</v>
+      </c>
       <c r="F5" s="196">
-        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <f t="shared" ref="F5:F47" si="0">C5-E5+F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="195"/>
+      <c r="A6" s="252">
+        <v>44681</v>
+      </c>
+      <c r="B6" s="253" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="254">
+        <v>112563.39</v>
+      </c>
+      <c r="D6" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E6" s="294">
+        <v>112563.39</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18192,66 +18211,126 @@
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="195"/>
+      <c r="A7" s="252">
+        <v>44681</v>
+      </c>
+      <c r="B7" s="253" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="254">
+        <v>1341.6</v>
+      </c>
+      <c r="D7" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="294">
+        <v>1341.6</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="195"/>
+      <c r="A8" s="249">
+        <v>44652</v>
+      </c>
+      <c r="B8" s="248" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="115">
+        <v>109475.36</v>
+      </c>
+      <c r="D8" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E8" s="295">
+        <v>109475.36</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="195"/>
+      <c r="A9" s="249">
+        <v>44653</v>
+      </c>
+      <c r="B9" s="248" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="115">
+        <v>93380.9</v>
+      </c>
+      <c r="D9" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E9" s="298">
+        <v>93380.9</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="195"/>
+      <c r="A10" s="249">
+        <v>44655</v>
+      </c>
+      <c r="B10" s="248" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="115">
+        <v>90010.89</v>
+      </c>
+      <c r="D10" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E10" s="298">
+        <v>90010.89</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="195"/>
+      <c r="A11" s="249">
+        <v>44656</v>
+      </c>
+      <c r="B11" s="248" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="115">
+        <v>0</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="115">
+        <v>0</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="224"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="195"/>
+      <c r="A12" s="249">
+        <v>44656</v>
+      </c>
+      <c r="B12" s="248" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="115">
+        <v>20042.650000000001</v>
+      </c>
+      <c r="D12" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E12" s="298">
+        <v>20042.650000000001</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18259,132 +18338,252 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="195"/>
+      <c r="A13" s="249">
+        <v>44657</v>
+      </c>
+      <c r="B13" s="248" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="115">
+        <v>91542.2</v>
+      </c>
+      <c r="D13" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E13" s="298">
+        <v>91542.2</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
-      <c r="B14" s="194"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="195"/>
+      <c r="A14" s="249">
+        <v>44658</v>
+      </c>
+      <c r="B14" s="248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="115">
+        <v>98059.12</v>
+      </c>
+      <c r="D14" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E14" s="298">
+        <v>98059.12</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="224"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="195"/>
+      <c r="A15" s="249">
+        <v>44659</v>
+      </c>
+      <c r="B15" s="248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="115">
+        <v>82352.600000000006</v>
+      </c>
+      <c r="D15" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E15" s="115">
+        <v>82352.600000000006</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="195"/>
+      <c r="A16" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B16" s="248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="115">
+        <v>10483.23</v>
+      </c>
+      <c r="D16" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E16" s="115">
+        <v>10483.23</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="224"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="195"/>
+      <c r="A17" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B17" s="248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="115">
+        <v>58975.89</v>
+      </c>
+      <c r="D17" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E17" s="115">
+        <v>58975.89</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="224"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="195"/>
+      <c r="A18" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B18" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="115">
+        <v>8687</v>
+      </c>
+      <c r="D18" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E18" s="115">
+        <v>8687</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="224"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="195"/>
+      <c r="A19" s="249">
+        <v>44662</v>
+      </c>
+      <c r="B19" s="248" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="115">
+        <v>66983.399999999994</v>
+      </c>
+      <c r="D19" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E19" s="115">
+        <v>66983.399999999994</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="224"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="195"/>
+      <c r="A20" s="249">
+        <v>44663</v>
+      </c>
+      <c r="B20" s="248" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="115">
+        <v>35876.1</v>
+      </c>
+      <c r="D20" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E20" s="115">
+        <v>35876.1</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="224"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="195"/>
+      <c r="A21" s="249">
+        <v>44664</v>
+      </c>
+      <c r="B21" s="248" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="115">
+        <v>68255.100000000006</v>
+      </c>
+      <c r="D21" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E21" s="115">
+        <v>68255.100000000006</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="224"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="195"/>
+      <c r="A22" s="249">
+        <v>44665</v>
+      </c>
+      <c r="B22" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="115">
+        <v>82981.11</v>
+      </c>
+      <c r="D22" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E22" s="115">
+        <v>82981.11</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="224"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="195"/>
+      <c r="A23" s="249">
+        <v>44665</v>
+      </c>
+      <c r="B23" s="248" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="115">
+        <v>8015.15</v>
+      </c>
+      <c r="D23" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E23" s="115">
+        <v>8015.15</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="224"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="195"/>
+      <c r="A24" s="249">
+        <v>44667</v>
+      </c>
+      <c r="B24" s="248" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="115">
+        <v>113918.95</v>
+      </c>
+      <c r="D24" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E24" s="115">
+        <v>113918.95</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18392,88 +18591,168 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="195"/>
+      <c r="A25" s="249">
+        <v>44668</v>
+      </c>
+      <c r="B25" s="248" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="115">
+        <v>610.4</v>
+      </c>
+      <c r="D25" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E25" s="115">
+        <v>610.4</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="195"/>
+      <c r="A26" s="249">
+        <v>44669</v>
+      </c>
+      <c r="B26" s="248" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="115">
+        <v>69241.3</v>
+      </c>
+      <c r="D26" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E26" s="115">
+        <v>69241.3</v>
+      </c>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="195"/>
+      <c r="A27" s="249">
+        <v>44670</v>
+      </c>
+      <c r="B27" s="248" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="115">
+        <v>19804.8</v>
+      </c>
+      <c r="D27" s="296">
+        <v>44673</v>
+      </c>
+      <c r="E27" s="297">
+        <v>19804.8</v>
+      </c>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="224"/>
-      <c r="B28" s="194"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="195"/>
+      <c r="A28" s="249">
+        <v>44671</v>
+      </c>
+      <c r="B28" s="248" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="115">
+        <v>97519.7</v>
+      </c>
+      <c r="D28" s="296">
+        <v>44673</v>
+      </c>
+      <c r="E28" s="297">
+        <v>97519.7</v>
+      </c>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="195"/>
+      <c r="A29" s="249">
+        <v>44672</v>
+      </c>
+      <c r="B29" s="248" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="115">
+        <v>108559.18</v>
+      </c>
+      <c r="D29" s="296">
+        <v>44673</v>
+      </c>
+      <c r="E29" s="297">
+        <v>108559.18</v>
+      </c>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="195"/>
+      <c r="A30" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B30" s="248" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="115">
+        <v>0</v>
+      </c>
+      <c r="D30" s="250" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="115">
+        <v>0</v>
+      </c>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="195"/>
+      <c r="A31" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B31" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="115">
+        <v>90834.65</v>
+      </c>
+      <c r="D31" s="296">
+        <v>44673</v>
+      </c>
+      <c r="E31" s="297">
+        <v>90834.65</v>
+      </c>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="224"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="195"/>
+      <c r="A32" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B32" s="248" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="115">
+        <v>6798</v>
+      </c>
+      <c r="D32" s="296">
+        <v>44673</v>
+      </c>
+      <c r="E32" s="297">
+        <v>6798</v>
+      </c>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18481,901 +18760,753 @@
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="195"/>
+      <c r="A33" s="249">
+        <v>44674</v>
+      </c>
+      <c r="B33" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="115">
+        <v>106135.36</v>
+      </c>
+      <c r="D33" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E33" s="115">
+        <v>106135.36</v>
+      </c>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="195"/>
+      <c r="A34" s="249">
+        <v>44676</v>
+      </c>
+      <c r="B34" s="248" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="115">
+        <v>53461.2</v>
+      </c>
+      <c r="D34" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E34" s="115">
+        <v>53461.2</v>
+      </c>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="224"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="200"/>
-      <c r="E35" s="195"/>
+      <c r="A35" s="249">
+        <v>44677</v>
+      </c>
+      <c r="B35" s="248" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="115">
+        <v>106910.84</v>
+      </c>
+      <c r="D35" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E35" s="115">
+        <v>106910.84</v>
+      </c>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="224"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="195"/>
+      <c r="A36" s="249">
+        <v>44678</v>
+      </c>
+      <c r="B36" s="248" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="115">
+        <v>73927.600000000006</v>
+      </c>
+      <c r="D36" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E36" s="115">
+        <v>73927.600000000006</v>
+      </c>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="224"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="195"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="195"/>
+      <c r="A37" s="249">
+        <v>44679</v>
+      </c>
+      <c r="B37" s="248" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="115">
+        <v>94122.1</v>
+      </c>
+      <c r="D37" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E37" s="115">
+        <v>94122.1</v>
+      </c>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="195"/>
+      <c r="A38" s="249">
+        <v>44679</v>
+      </c>
+      <c r="B38" s="248" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="115">
+        <v>3672</v>
+      </c>
+      <c r="D38" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="115">
+        <v>3672</v>
+      </c>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="195"/>
+      <c r="A39" s="249">
+        <v>44680</v>
+      </c>
+      <c r="B39" s="248" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="115">
+        <v>66412.5</v>
+      </c>
+      <c r="D39" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E39" s="115">
+        <v>66412.5</v>
+      </c>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="195"/>
+      <c r="A40" s="249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="248" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="115">
+        <v>101114.1</v>
+      </c>
       <c r="D40" s="200"/>
       <c r="E40" s="195"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101114.1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="224"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="195"/>
+      <c r="A41" s="249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="248" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="115">
+        <v>28591.200000000001</v>
+      </c>
       <c r="D41" s="200"/>
       <c r="E41" s="195"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="224"/>
+      <c r="A42" s="211"/>
       <c r="B42" s="194"/>
       <c r="C42" s="195"/>
       <c r="D42" s="200"/>
       <c r="E42" s="195"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="224"/>
-      <c r="B44" s="194"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
-      <c r="B45" s="194"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="200"/>
-      <c r="E45" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
-      <c r="B46" s="194"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="200"/>
-      <c r="E46" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="224"/>
-      <c r="B47" s="194"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="200"/>
-      <c r="E47" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="224"/>
-      <c r="B48" s="194"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="195"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="224"/>
-      <c r="B49" s="194"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="195"/>
+        <f t="shared" ref="F48:F78" si="1">C48-E48+F47</f>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="224"/>
-      <c r="B50" s="194"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="195"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="224"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="195"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="224"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="200"/>
-      <c r="E52" s="195"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="225"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
       <c r="D53" s="159"/>
       <c r="E53" s="86"/>
       <c r="F53" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="225"/>
-      <c r="B54" s="160"/>
-      <c r="C54" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
       <c r="D54" s="159"/>
       <c r="E54" s="86"/>
       <c r="F54" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="225"/>
-      <c r="B55" s="160"/>
-      <c r="C55" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
       <c r="D55" s="159"/>
       <c r="E55" s="86"/>
       <c r="F55" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="226"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="159"/>
       <c r="E56" s="86"/>
       <c r="F56" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="226"/>
-      <c r="B57" s="160"/>
-      <c r="C57" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
       <c r="D57" s="159"/>
       <c r="E57" s="86"/>
       <c r="F57" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="226"/>
-      <c r="B58" s="160"/>
-      <c r="C58" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
       <c r="D58" s="159"/>
       <c r="E58" s="86"/>
       <c r="F58" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="225"/>
-      <c r="B59" s="160"/>
-      <c r="C59" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
       <c r="D59" s="159"/>
       <c r="E59" s="86"/>
       <c r="F59" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="225"/>
-      <c r="B60" s="160"/>
-      <c r="C60" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
       <c r="D60" s="159"/>
       <c r="E60" s="86"/>
       <c r="F60" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="225"/>
-      <c r="B61" s="160"/>
-      <c r="C61" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
       <c r="D61" s="159"/>
       <c r="E61" s="86"/>
       <c r="F61" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="226"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="226"/>
-      <c r="B63" s="160"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="226"/>
-      <c r="B64" s="160"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="227"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="86"/>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="227"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="86"/>
+      <c r="A66" s="167"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="227"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="86"/>
+      <c r="A67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="227"/>
+      <c r="A68" s="164"/>
       <c r="B68" s="165"/>
       <c r="C68" s="166"/>
-      <c r="D68" s="159"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="86"/>
       <c r="F68" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="227"/>
+      <c r="A69" s="164"/>
       <c r="B69" s="165"/>
       <c r="C69" s="166"/>
-      <c r="D69" s="159"/>
+      <c r="D69" s="171"/>
       <c r="E69" s="86"/>
       <c r="F69" s="196">
-        <f t="shared" ref="F69:F99" si="1">C69-E69+F68</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="227"/>
+      <c r="A70" s="164"/>
       <c r="B70" s="165"/>
       <c r="C70" s="166"/>
-      <c r="D70" s="159"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="227"/>
+      <c r="A71" s="164"/>
       <c r="B71" s="165"/>
       <c r="C71" s="166"/>
-      <c r="D71" s="159"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="227"/>
+      <c r="A72" s="164"/>
       <c r="B72" s="165"/>
       <c r="C72" s="166"/>
-      <c r="D72" s="159"/>
+      <c r="D72" s="171"/>
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="227"/>
+      <c r="A73" s="164"/>
       <c r="B73" s="165"/>
       <c r="C73" s="166"/>
-      <c r="D73" s="159"/>
+      <c r="D73" s="171"/>
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="227"/>
+      <c r="A74" s="164"/>
       <c r="B74" s="165"/>
       <c r="C74" s="166"/>
-      <c r="D74" s="159"/>
+      <c r="D74" s="171"/>
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="227"/>
+      <c r="A75" s="164"/>
       <c r="B75" s="165"/>
       <c r="C75" s="166"/>
-      <c r="D75" s="159"/>
+      <c r="D75" s="171"/>
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="227"/>
+      <c r="A76" s="164"/>
       <c r="B76" s="165"/>
       <c r="C76" s="166"/>
-      <c r="D76" s="159"/>
+      <c r="D76" s="171"/>
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="227"/>
+      <c r="A77" s="164"/>
       <c r="B77" s="165"/>
       <c r="C77" s="166"/>
-      <c r="D77" s="159"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129705.3</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="227"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="86"/>
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="174"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="227"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="227"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="166"/>
-      <c r="D80" s="159"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="227"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="166"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="227"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="228"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="228"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="228"/>
-      <c r="B85" s="168"/>
-      <c r="C85" s="169"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="228"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="228"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="228"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="227"/>
-      <c r="B89" s="165"/>
-      <c r="C89" s="166"/>
-      <c r="D89" s="171"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="227"/>
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="227"/>
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="227"/>
-      <c r="B92" s="165"/>
-      <c r="C92" s="166"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="227"/>
-      <c r="B93" s="165"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="227"/>
-      <c r="B94" s="165"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="171"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="227"/>
-      <c r="B95" s="165"/>
-      <c r="C95" s="166"/>
-      <c r="D95" s="171"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="227"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="166"/>
-      <c r="D96" s="171"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="227"/>
-      <c r="B97" s="165"/>
-      <c r="C97" s="166"/>
-      <c r="D97" s="171"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="227"/>
-      <c r="B98" s="165"/>
-      <c r="C98" s="166"/>
-      <c r="D98" s="171"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="229"/>
-      <c r="B99" s="173"/>
-      <c r="C99" s="34">
-        <v>0</v>
-      </c>
-      <c r="D99" s="174"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="196">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="230"/>
-      <c r="B100" s="233"/>
-      <c r="C100" s="177">
-        <f>SUM(C3:C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="189"/>
-      <c r="E100" s="178">
-        <f>SUM(E3:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="179">
-        <f>F99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="170"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="170"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="235"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="235"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="235"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="235"/>
-      <c r="F106" s="117"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="235"/>
-      <c r="F107" s="117"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="235"/>
-      <c r="F108" s="117"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="235"/>
-      <c r="F109" s="117"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="235"/>
-      <c r="F110" s="117"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="235"/>
-      <c r="F111" s="117"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="235"/>
-      <c r="F112" s="117"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="235"/>
-      <c r="F113" s="117"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="235"/>
-      <c r="F114" s="117"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="235"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="235"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="235"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="117"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="235"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="235"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="235"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="235"/>
-      <c r="E121" s="117"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="235"/>
-      <c r="E122" s="117"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="235"/>
-      <c r="E123" s="117"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="235"/>
-      <c r="E124" s="117"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="235"/>
-      <c r="E125" s="117"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="235"/>
-      <c r="E126" s="117"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="235"/>
-      <c r="E127" s="117"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="235"/>
-      <c r="E128" s="117"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="235"/>
-      <c r="E129" s="117"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="235"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="235"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="235"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="235"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="235"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="235"/>
-    </row>
-    <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C136" s="180"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="212"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="251">
+        <f>SUM(C3:C78)</f>
+        <v>2227493.48</v>
+      </c>
+      <c r="D79" s="189"/>
+      <c r="E79" s="178">
+        <f>SUM(E3:E78)</f>
+        <v>2097788.1799999997</v>
+      </c>
+      <c r="F79" s="179">
+        <f>F78</f>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="170"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="170"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="234"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="234"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="234"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="234"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="234"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="234"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="234"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="234"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="234"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="234"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="234"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="234"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="234"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="234"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="234"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="234"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="234"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="234"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="234"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="234"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="234"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="234"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="234"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="234"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="234"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="234"/>
+      <c r="E107" s="117"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="234"/>
+      <c r="E108" s="117"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="234"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="234"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="234"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="234"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="234"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="234"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/BALANCE   HERRADURA  ABRIL   2022.xlsx
@@ -1591,7 +1591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2339,12 +2339,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2818,6 +2829,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2899,47 +2948,18 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4962,23 +4982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="282"/>
-      <c r="C1" s="284" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -4988,21 +5008,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="287"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="288"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="255" t="s">
+      <c r="R3" s="271" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5017,14 +5037,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="H4" s="291" t="s">
+      <c r="F4" s="268"/>
+      <c r="H4" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="270"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5034,11 +5054,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="256"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -6539,11 +6559,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="264">
+      <c r="M40" s="280">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="266">
+      <c r="N40" s="282">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -6569,8 +6589,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="265"/>
-      <c r="N41" s="267"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="283"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -6785,29 +6805,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="268" t="s">
+      <c r="H53" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="269"/>
+      <c r="I53" s="285"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="270">
+      <c r="K53" s="286">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="271"/>
-      <c r="M53" s="272">
+      <c r="L53" s="287"/>
+      <c r="M53" s="288">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="273"/>
+      <c r="N53" s="289"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="274" t="s">
+      <c r="D54" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="274"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -6818,22 +6838,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="275" t="s">
+      <c r="D55" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="275"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="276" t="s">
+      <c r="I55" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="277"/>
-      <c r="K55" s="278">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="295"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -6864,11 +6884,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="280">
+      <c r="K57" s="296">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="297"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -6885,22 +6905,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="257" t="s">
+      <c r="D59" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="258"/>
+      <c r="E59" s="274"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="259" t="s">
+      <c r="I59" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="260"/>
-      <c r="K59" s="261">
+      <c r="J59" s="276"/>
+      <c r="K59" s="277">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="261"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7044,12 +7064,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7065,6 +7079,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8882,23 +8902,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="282"/>
-      <c r="C1" s="284" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8908,21 +8928,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="287"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="288"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="255" t="s">
+      <c r="R3" s="271" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8937,14 +8957,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="H4" s="291" t="s">
+      <c r="F4" s="268"/>
+      <c r="H4" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="270"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -8954,11 +8974,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="256"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10442,11 +10462,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="293">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="266">
+      <c r="N40" s="282">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -10472,8 +10492,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="265"/>
-      <c r="N41" s="267"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="283"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -10688,29 +10708,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="268" t="s">
+      <c r="H53" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="269"/>
+      <c r="I53" s="285"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="270">
+      <c r="K53" s="286">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="271"/>
-      <c r="M53" s="272">
+      <c r="L53" s="287"/>
+      <c r="M53" s="288">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="273"/>
+      <c r="N53" s="289"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="274" t="s">
+      <c r="D54" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="274"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -10721,22 +10741,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="275" t="s">
+      <c r="D55" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="275"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="276" t="s">
+      <c r="I55" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="277"/>
-      <c r="K55" s="278">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="295"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -10767,11 +10787,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="280">
+      <c r="K57" s="296">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="297"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -10788,22 +10808,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="257" t="s">
+      <c r="D59" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="258"/>
+      <c r="E59" s="274"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="259" t="s">
+      <c r="I59" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="260"/>
-      <c r="K59" s="261">
+      <c r="J59" s="276"/>
+      <c r="K59" s="277">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="261"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10947,18 +10967,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10968,6 +10976,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12272,23 +12292,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="282"/>
-      <c r="C1" s="284" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12298,21 +12318,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="287"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="288"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="255" t="s">
+      <c r="R3" s="271" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12327,14 +12347,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="H4" s="291" t="s">
+      <c r="F4" s="268"/>
+      <c r="H4" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="270"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -12344,11 +12364,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="256"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -13816,11 +13836,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="264">
+      <c r="M40" s="280">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="266">
+      <c r="N40" s="282">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -13850,8 +13870,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="265"/>
-      <c r="N41" s="267"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="283"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -14066,29 +14086,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="268" t="s">
+      <c r="H53" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="269"/>
+      <c r="I53" s="285"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="270">
+      <c r="K53" s="286">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="271"/>
-      <c r="M53" s="272">
+      <c r="L53" s="287"/>
+      <c r="M53" s="288">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="273"/>
+      <c r="N53" s="289"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="274" t="s">
+      <c r="D54" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="274"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -14099,22 +14119,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="275" t="s">
+      <c r="D55" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="275"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="276" t="s">
+      <c r="I55" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="277"/>
-      <c r="K55" s="278">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="295"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -14145,11 +14165,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="280">
+      <c r="K57" s="296">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="297"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -14166,22 +14186,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="257" t="s">
+      <c r="D59" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="258"/>
+      <c r="E59" s="274"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="259" t="s">
+      <c r="I59" s="275" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="260"/>
-      <c r="K59" s="261">
+      <c r="J59" s="276"/>
+      <c r="K59" s="277">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="261"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14325,6 +14345,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14334,18 +14366,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15796,8 +15816,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15820,23 +15840,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="282"/>
-      <c r="C1" s="284" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15846,21 +15866,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="287"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="288"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="255" t="s">
+      <c r="R3" s="271" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15875,14 +15895,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="H4" s="291" t="s">
+      <c r="F4" s="268"/>
+      <c r="H4" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="270"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15892,11 +15912,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="256"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -17539,11 +17559,11 @@
       <c r="L40" s="75">
         <v>30225</v>
       </c>
-      <c r="M40" s="264">
+      <c r="M40" s="280">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="266">
+      <c r="N40" s="282">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -17562,27 +17582,27 @@
       <c r="C41" s="86"/>
       <c r="D41" s="84"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="87"/>
+      <c r="F41" s="299"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="37"/>
+      <c r="H41" s="300"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
       <c r="K41" s="246"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="265"/>
-      <c r="N41" s="267"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="283"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="94"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="301"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="95"/>
       <c r="J42" s="73"/>
       <c r="K42" s="76"/>
@@ -17594,13 +17614,13 @@
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="94"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="302"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="301"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="95"/>
       <c r="J43" s="73"/>
       <c r="K43" s="76"/>
@@ -17612,13 +17632,13 @@
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="94"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="302"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="301"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="95"/>
       <c r="J44" s="73"/>
       <c r="K44" s="76"/>
@@ -17630,13 +17650,13 @@
     </row>
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="94"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="302"/>
+      <c r="F45" s="246"/>
+      <c r="G45" s="301"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="95"/>
       <c r="J45" s="73"/>
       <c r="K45" s="76"/>
@@ -17648,7 +17668,7 @@
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
+      <c r="B46" s="303"/>
       <c r="C46" s="90"/>
       <c r="D46" s="91"/>
       <c r="E46" s="92"/>
@@ -17785,29 +17805,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="268" t="s">
+      <c r="H53" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="269"/>
+      <c r="I53" s="285"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="270">
+      <c r="K53" s="286">
         <f>I51+L51</f>
         <v>86124</v>
       </c>
-      <c r="L53" s="271"/>
-      <c r="M53" s="272">
+      <c r="L53" s="287"/>
+      <c r="M53" s="288">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="273"/>
+      <c r="N53" s="289"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="274" t="s">
+      <c r="D54" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="274"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2185028</v>
@@ -17818,22 +17838,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="275" t="s">
+      <c r="D55" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="275"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="276" t="s">
+      <c r="I55" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="277"/>
-      <c r="K55" s="278">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
         <f>F57+F58+F59</f>
         <v>266670.11000000004</v>
       </c>
-      <c r="L55" s="279"/>
+      <c r="L55" s="295"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17864,11 +17884,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="280">
+      <c r="K57" s="296">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="281"/>
+      <c r="L57" s="297"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17885,20 +17905,20 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="257" t="s">
+      <c r="D59" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="258"/>
+      <c r="E59" s="274"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="259"/>
-      <c r="J59" s="260"/>
-      <c r="K59" s="261">
+      <c r="I59" s="275"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="277">
         <f>K55+K57</f>
         <v>47252.740000000049</v>
       </c>
-      <c r="L59" s="261"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -18042,6 +18062,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18051,18 +18083,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18138,7 +18158,7 @@
       <c r="D3" s="239">
         <v>44652</v>
       </c>
-      <c r="E3" s="294">
+      <c r="E3" s="255">
         <v>38714.910000000003</v>
       </c>
       <c r="F3" s="158">
@@ -18159,7 +18179,7 @@
       <c r="D4" s="239">
         <v>44652</v>
       </c>
-      <c r="E4" s="294">
+      <c r="E4" s="255">
         <v>7324.6</v>
       </c>
       <c r="F4" s="196">
@@ -18180,7 +18200,7 @@
       <c r="D5" s="239">
         <v>44652</v>
       </c>
-      <c r="E5" s="294">
+      <c r="E5" s="255">
         <v>794.4</v>
       </c>
       <c r="F5" s="196">
@@ -18201,7 +18221,7 @@
       <c r="D6" s="239">
         <v>44652</v>
       </c>
-      <c r="E6" s="294">
+      <c r="E6" s="255">
         <v>112563.39</v>
       </c>
       <c r="F6" s="196">
@@ -18223,7 +18243,7 @@
       <c r="D7" s="239">
         <v>44652</v>
       </c>
-      <c r="E7" s="294">
+      <c r="E7" s="255">
         <v>1341.6</v>
       </c>
       <c r="F7" s="196">
@@ -18244,7 +18264,7 @@
       <c r="D8" s="239">
         <v>44652</v>
       </c>
-      <c r="E8" s="295">
+      <c r="E8" s="256">
         <v>109475.36</v>
       </c>
       <c r="F8" s="196">
@@ -18265,7 +18285,7 @@
       <c r="D9" s="241">
         <v>44659</v>
       </c>
-      <c r="E9" s="298">
+      <c r="E9" s="259">
         <v>93380.9</v>
       </c>
       <c r="F9" s="196">
@@ -18286,7 +18306,7 @@
       <c r="D10" s="241">
         <v>44659</v>
       </c>
-      <c r="E10" s="298">
+      <c r="E10" s="259">
         <v>90010.89</v>
       </c>
       <c r="F10" s="196">
@@ -18328,7 +18348,7 @@
       <c r="D12" s="241">
         <v>44659</v>
       </c>
-      <c r="E12" s="298">
+      <c r="E12" s="259">
         <v>20042.650000000001</v>
       </c>
       <c r="F12" s="196">
@@ -18350,7 +18370,7 @@
       <c r="D13" s="241">
         <v>44659</v>
       </c>
-      <c r="E13" s="298">
+      <c r="E13" s="259">
         <v>91542.2</v>
       </c>
       <c r="F13" s="196">
@@ -18371,7 +18391,7 @@
       <c r="D14" s="241">
         <v>44659</v>
       </c>
-      <c r="E14" s="298">
+      <c r="E14" s="259">
         <v>98059.12</v>
       </c>
       <c r="F14" s="196">
@@ -18642,10 +18662,10 @@
       <c r="C27" s="115">
         <v>19804.8</v>
       </c>
-      <c r="D27" s="296">
+      <c r="D27" s="257">
         <v>44673</v>
       </c>
-      <c r="E27" s="297">
+      <c r="E27" s="258">
         <v>19804.8</v>
       </c>
       <c r="F27" s="196">
@@ -18663,10 +18683,10 @@
       <c r="C28" s="115">
         <v>97519.7</v>
       </c>
-      <c r="D28" s="296">
+      <c r="D28" s="257">
         <v>44673</v>
       </c>
-      <c r="E28" s="297">
+      <c r="E28" s="258">
         <v>97519.7</v>
       </c>
       <c r="F28" s="196">
@@ -18684,10 +18704,10 @@
       <c r="C29" s="115">
         <v>108559.18</v>
       </c>
-      <c r="D29" s="296">
+      <c r="D29" s="257">
         <v>44673</v>
       </c>
-      <c r="E29" s="297">
+      <c r="E29" s="258">
         <v>108559.18</v>
       </c>
       <c r="F29" s="196">
@@ -18726,10 +18746,10 @@
       <c r="C31" s="115">
         <v>90834.65</v>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="257">
         <v>44673</v>
       </c>
-      <c r="E31" s="297">
+      <c r="E31" s="258">
         <v>90834.65</v>
       </c>
       <c r="F31" s="196">
@@ -18747,10 +18767,10 @@
       <c r="C32" s="115">
         <v>6798</v>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="257">
         <v>44673</v>
       </c>
-      <c r="E32" s="297">
+      <c r="E32" s="258">
         <v>6798</v>
       </c>
       <c r="F32" s="196">
